--- a/Assignment -1 Basic Function.xlsx
+++ b/Assignment -1 Basic Function.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MS Excel-CoachX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68a15542b8be835c/Documents/Data  Science/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23587E97-B345-4D4E-B19B-8CAC9560C036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{23587E97-B345-4D4E-B19B-8CAC9560C036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{709C615B-6613-4947-8E30-1C565B1F38C3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B8FCA78C-0A0E-4727-B8CC-AD266F833A2B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="18648" windowHeight="12504" xr2:uid="{B8FCA78C-0A0E-4727-B8CC-AD266F833A2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Formulas" sheetId="1" r:id="rId1"/>
@@ -700,10 +700,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="6" formatCode="&quot;₹&quot;\ #,##0;[Red]&quot;₹&quot;\ \-#,##0"/>
     <numFmt numFmtId="164" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="&quot;₹&quot;\ #,##0.00000;[Red]&quot;₹&quot;\ \-#,##0.00000"/>
+    <numFmt numFmtId="167" formatCode="&quot;₹&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -845,7 +846,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -885,7 +886,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="My Style" xfId="2" xr:uid="{5F48B6B0-EFFD-4120-A33E-2203EFFF62BA}"/>
@@ -906,9 +908,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -946,7 +948,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1052,7 +1054,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1194,7 +1196,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1204,7 +1206,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{072CE742-8BE5-4D98-AFA1-C022C6BFAB17}">
   <dimension ref="A1:U101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="T16" sqref="T16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -1509,7 +1513,10 @@
       <c r="T5" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="U5" s="12"/>
+      <c r="U5" s="12">
+        <f>SUM(O2:O101)</f>
+        <v>3385797.4348000004</v>
+      </c>
     </row>
     <row r="6" spans="1:21" ht="18.600000000000001" thickBot="1">
       <c r="A6" s="3">
@@ -1625,7 +1632,10 @@
       <c r="T7" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="U7" s="14"/>
+      <c r="U7" s="14">
+        <f>COUNTA(B2:B101)</f>
+        <v>100</v>
+      </c>
     </row>
     <row r="8" spans="1:21" ht="18.600000000000001" thickBot="1">
       <c r="A8" s="3">
@@ -1745,7 +1755,10 @@
       <c r="T9" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="U9" s="15"/>
+      <c r="U9" s="15">
+        <f>AVERAGE(N2:N101)</f>
+        <v>5732.8841520000005</v>
+      </c>
     </row>
     <row r="10" spans="1:21" ht="18.600000000000001" thickBot="1">
       <c r="A10" s="3">
@@ -1862,7 +1875,10 @@
       <c r="T11" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="U11" s="16"/>
+      <c r="U11" s="16">
+        <f>ROUND(U9,0)</f>
+        <v>5733</v>
+      </c>
     </row>
     <row r="12" spans="1:21" ht="18.600000000000001" thickBot="1">
       <c r="A12" s="3">
@@ -1978,7 +1994,10 @@
       <c r="T13" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="U13" s="17"/>
+      <c r="U13" s="17">
+        <f>MAX(N2:N101)</f>
+        <v>26904</v>
+      </c>
     </row>
     <row r="14" spans="1:21" ht="16.2" thickBot="1">
       <c r="A14" s="3">
@@ -2095,7 +2114,10 @@
       <c r="T15" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="U15" s="17"/>
+      <c r="U15" s="18">
+        <f>ROUND(LARGE(N2:N101,2),0)</f>
+        <v>26635</v>
+      </c>
     </row>
     <row r="16" spans="1:21" ht="15.6">
       <c r="A16" s="3">
